--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.24</v>
+        <v>0.401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246</v>
+        <v>0.312</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>-22.19</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.188</v>
+        <v>0.466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.161</v>
+        <v>0.359</v>
       </c>
       <c r="D5" t="n">
-        <v>-14.36</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205</v>
+        <v>0.151</v>
       </c>
       <c r="D6" t="n">
-        <v>13.89</v>
+        <v>-22.56</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.06111187604256</v>
+        <v>2.037486186949536</v>
       </c>
       <c r="C4" t="n">
-        <v>1.753464906709269</v>
+        <v>1.684549344354309</v>
       </c>
       <c r="D4" t="n">
-        <v>-14.93</v>
+        <v>-17.32</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1751199479243087</v>
+        <v>0.1540006455185547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1682183834725698</v>
+        <v>0.1472882984077959</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.94</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="5">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="C5" t="n">
-        <v>10.742</v>
+        <v>4.504</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.95999999999999</v>
+        <v>-89.42</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.926151150464035</v>
+        <v>9.888425383513319</v>
       </c>
       <c r="C6" t="n">
-        <v>19.96631544627973</v>
+        <v>19.91204974198335</v>
       </c>
       <c r="D6" t="n">
-        <v>123.68</v>
+        <v>101.37</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3721273422159</v>
+        <v>0.5455942081844722</v>
       </c>
       <c r="F6" t="n">
-        <v>3.17653317904001</v>
+        <v>2.284482979383482</v>
       </c>
       <c r="G6" t="n">
-        <v>131.5</v>
+        <v>318.71</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.401</v>
+        <v>0.364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312</v>
+        <v>0.288</v>
       </c>
       <c r="D4" t="n">
-        <v>-22.19</v>
+        <v>-20.88</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.466</v>
+        <v>0.358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359</v>
+        <v>0.323</v>
       </c>
       <c r="D5" t="n">
-        <v>-22.96</v>
+        <v>-9.779999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.195</v>
+        <v>0.288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.151</v>
+        <v>0.287</v>
       </c>
       <c r="D6" t="n">
-        <v>-22.56</v>
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.037486186949536</v>
+        <v>2.136318968259729</v>
       </c>
       <c r="C4" t="n">
-        <v>1.684549344354309</v>
+        <v>1.902754532347899</v>
       </c>
       <c r="D4" t="n">
-        <v>-17.32</v>
+        <v>-10.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1540006455185547</v>
+        <v>0.2750452591213423</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1472882984077959</v>
+        <v>0.266882524298</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.36</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="5">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="C5" t="n">
-        <v>4.504</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-89.42</v>
+        <v>-74.95999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.888425383513319</v>
+        <v>9.514647195606118</v>
       </c>
       <c r="C6" t="n">
-        <v>19.91204974198335</v>
+        <v>18.76295213917985</v>
       </c>
       <c r="D6" t="n">
-        <v>101.37</v>
+        <v>97.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5455942081844722</v>
+        <v>0.8376801352393087</v>
       </c>
       <c r="F6" t="n">
-        <v>2.284482979383482</v>
+        <v>2.48317641416026</v>
       </c>
       <c r="G6" t="n">
-        <v>318.71</v>
+        <v>196.43</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-dynamic_pruning_quant-static/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
